--- a/visuals/lab1/lab1-results.xlsx
+++ b/visuals/lab1/lab1-results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2353" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="112">
   <si>
     <t>Perceptron rule</t>
   </si>
@@ -305,12 +305,57 @@
   <si>
     <t>split</t>
   </si>
+  <si>
+    <t>Split</t>
+  </si>
+  <si>
+    <t>pocket_epoch - mean - eta:0.5</t>
+  </si>
+  <si>
+    <t>pocket_epoch - mean - eta:0.25</t>
+  </si>
+  <si>
+    <t>pocket_epoch - std - eta:0.5</t>
+  </si>
+  <si>
+    <t>pocket_epoch - std - eta:0.25</t>
+  </si>
+  <si>
+    <t>train_loss - mean - eta:0.5</t>
+  </si>
+  <si>
+    <t>train_loss - mean - eta:0.25</t>
+  </si>
+  <si>
+    <t>train_loss - std - eta:0.5</t>
+  </si>
+  <si>
+    <t>train_loss - std - eta:0.25</t>
+  </si>
+  <si>
+    <t>valid_loss - mean - eta:0.5</t>
+  </si>
+  <si>
+    <t>valid_loss - mean - eta:0.25</t>
+  </si>
+  <si>
+    <t>valid_loss - std - eta:0.5</t>
+  </si>
+  <si>
+    <t>valid_loss - std - eta:0.25</t>
+  </si>
+  <si>
+    <t>best_valid_loss - mean</t>
+  </si>
+  <si>
+    <t>The best is for 0.5 eta, 0.25 is consistently worse</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="14">
+  <fonts count="20">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -375,6 +420,32 @@
     </font>
     <font>
       <sz val="14.0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24.0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <sz val="14.0"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -506,13 +577,126 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="112">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -745,6 +929,102 @@
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="16" numFmtId="11" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="16" numFmtId="11" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="16" numFmtId="11" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="16" numFmtId="11" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="16" numFmtId="11" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="16" numFmtId="11" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="16" numFmtId="11" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="16" numFmtId="11" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="16" numFmtId="11" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="16" numFmtId="11" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="16" numFmtId="11" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -73762,6 +74042,1491 @@
         <v>1.01E-6</v>
       </c>
     </row>
+    <row r="149">
+      <c r="B149" s="80"/>
+      <c r="C149" s="80"/>
+      <c r="D149" s="80"/>
+      <c r="E149" s="80"/>
+      <c r="F149" s="80"/>
+      <c r="G149" s="80"/>
+      <c r="H149" s="80"/>
+      <c r="I149" s="80"/>
+      <c r="J149" s="80"/>
+      <c r="K149" s="80"/>
+      <c r="L149" s="80"/>
+      <c r="M149" s="80"/>
+      <c r="N149" s="80"/>
+      <c r="O149" s="80"/>
+      <c r="P149" s="80"/>
+      <c r="Q149" s="80"/>
+      <c r="R149" s="80"/>
+      <c r="S149" s="80"/>
+      <c r="T149" s="80"/>
+      <c r="U149" s="80"/>
+      <c r="V149" s="80"/>
+      <c r="W149" s="80"/>
+      <c r="X149" s="80"/>
+      <c r="Y149" s="80"/>
+      <c r="Z149" s="80"/>
+      <c r="AA149" s="80"/>
+      <c r="AB149" s="80"/>
+      <c r="AC149" s="80"/>
+      <c r="AD149" s="80"/>
+      <c r="AE149" s="80"/>
+      <c r="AF149" s="80"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="81" t="s">
+        <v>97</v>
+      </c>
+      <c r="B150" s="82">
+        <v>20.0</v>
+      </c>
+      <c r="C150" s="82">
+        <v>22.0</v>
+      </c>
+      <c r="D150" s="82">
+        <v>24.0</v>
+      </c>
+      <c r="E150" s="82">
+        <v>26.0</v>
+      </c>
+      <c r="F150" s="82">
+        <v>28.0</v>
+      </c>
+      <c r="G150" s="82">
+        <v>30.0</v>
+      </c>
+      <c r="H150" s="82">
+        <v>32.0</v>
+      </c>
+      <c r="I150" s="82">
+        <v>34.0</v>
+      </c>
+      <c r="J150" s="82">
+        <v>36.0</v>
+      </c>
+      <c r="K150" s="82">
+        <v>38.0</v>
+      </c>
+      <c r="L150" s="82">
+        <v>40.0</v>
+      </c>
+      <c r="M150" s="82">
+        <v>42.0</v>
+      </c>
+      <c r="N150" s="82">
+        <v>44.0</v>
+      </c>
+      <c r="O150" s="82">
+        <v>46.0</v>
+      </c>
+      <c r="P150" s="82">
+        <v>48.0</v>
+      </c>
+      <c r="Q150" s="82">
+        <v>50.0</v>
+      </c>
+      <c r="R150" s="82">
+        <v>52.0</v>
+      </c>
+      <c r="S150" s="82">
+        <v>54.0</v>
+      </c>
+      <c r="T150" s="82">
+        <v>56.0</v>
+      </c>
+      <c r="U150" s="82">
+        <v>57.0</v>
+      </c>
+      <c r="V150" s="82">
+        <v>60.0</v>
+      </c>
+      <c r="W150" s="82">
+        <v>62.0</v>
+      </c>
+      <c r="X150" s="82">
+        <v>64.0</v>
+      </c>
+      <c r="Y150" s="82">
+        <v>66.0</v>
+      </c>
+      <c r="Z150" s="82">
+        <v>68.0</v>
+      </c>
+      <c r="AA150" s="82">
+        <v>70.0</v>
+      </c>
+      <c r="AB150" s="82">
+        <v>72.0</v>
+      </c>
+      <c r="AC150" s="82">
+        <v>74.0</v>
+      </c>
+      <c r="AD150" s="82">
+        <v>76.0</v>
+      </c>
+      <c r="AE150" s="82">
+        <v>78.0</v>
+      </c>
+      <c r="AF150" s="83">
+        <v>80.0</v>
+      </c>
+      <c r="AG150" s="16"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="84" t="s">
+        <v>98</v>
+      </c>
+      <c r="B151" s="85">
+        <v>984113.0</v>
+      </c>
+      <c r="C151" s="86">
+        <v>979678.25</v>
+      </c>
+      <c r="D151" s="86">
+        <v>979941.75</v>
+      </c>
+      <c r="E151" s="86">
+        <v>974754.75</v>
+      </c>
+      <c r="F151" s="86">
+        <v>974556.25</v>
+      </c>
+      <c r="G151" s="86">
+        <v>969321.25</v>
+      </c>
+      <c r="H151" s="86">
+        <v>979859.75</v>
+      </c>
+      <c r="I151" s="86">
+        <v>987806.0</v>
+      </c>
+      <c r="J151" s="86">
+        <v>987970.75</v>
+      </c>
+      <c r="K151" s="86">
+        <v>933341.75</v>
+      </c>
+      <c r="L151" s="86">
+        <v>976812.25</v>
+      </c>
+      <c r="M151" s="86">
+        <v>985794.0</v>
+      </c>
+      <c r="N151" s="86">
+        <v>953015.5</v>
+      </c>
+      <c r="O151" s="86">
+        <v>950185.25</v>
+      </c>
+      <c r="P151" s="86">
+        <v>984305.5</v>
+      </c>
+      <c r="Q151" s="86">
+        <v>906473.5</v>
+      </c>
+      <c r="R151" s="86">
+        <v>965946.25</v>
+      </c>
+      <c r="S151" s="86">
+        <v>981880.0</v>
+      </c>
+      <c r="T151" s="86">
+        <v>965171.0</v>
+      </c>
+      <c r="U151" s="86">
+        <v>942489.75</v>
+      </c>
+      <c r="V151" s="86">
+        <v>900497.0</v>
+      </c>
+      <c r="W151" s="86">
+        <v>920896.25</v>
+      </c>
+      <c r="X151" s="86">
+        <v>913833.25</v>
+      </c>
+      <c r="Y151" s="86">
+        <v>976706.5</v>
+      </c>
+      <c r="Z151" s="86">
+        <v>971903.0</v>
+      </c>
+      <c r="AA151" s="86">
+        <v>972191.75</v>
+      </c>
+      <c r="AB151" s="86">
+        <v>967721.0</v>
+      </c>
+      <c r="AC151" s="86">
+        <v>969374.75</v>
+      </c>
+      <c r="AD151" s="86">
+        <v>954484.25</v>
+      </c>
+      <c r="AE151" s="86">
+        <v>975830.5</v>
+      </c>
+      <c r="AF151" s="87">
+        <v>966726.0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="84" t="s">
+        <v>99</v>
+      </c>
+      <c r="B152" s="88">
+        <v>994673.75</v>
+      </c>
+      <c r="C152" s="89">
+        <v>997325.25</v>
+      </c>
+      <c r="D152" s="89">
+        <v>998313.75</v>
+      </c>
+      <c r="E152" s="89">
+        <v>996579.0</v>
+      </c>
+      <c r="F152" s="89">
+        <v>995140.25</v>
+      </c>
+      <c r="G152" s="89">
+        <v>996150.25</v>
+      </c>
+      <c r="H152" s="89">
+        <v>992340.5</v>
+      </c>
+      <c r="I152" s="89">
+        <v>993217.25</v>
+      </c>
+      <c r="J152" s="89">
+        <v>996833.75</v>
+      </c>
+      <c r="K152" s="89">
+        <v>993841.5</v>
+      </c>
+      <c r="L152" s="89">
+        <v>996038.0</v>
+      </c>
+      <c r="M152" s="89">
+        <v>995866.5</v>
+      </c>
+      <c r="N152" s="89">
+        <v>995472.0</v>
+      </c>
+      <c r="O152" s="89">
+        <v>996616.25</v>
+      </c>
+      <c r="P152" s="89">
+        <v>995083.0</v>
+      </c>
+      <c r="Q152" s="89">
+        <v>993679.25</v>
+      </c>
+      <c r="R152" s="89">
+        <v>993382.75</v>
+      </c>
+      <c r="S152" s="89">
+        <v>993840.25</v>
+      </c>
+      <c r="T152" s="89">
+        <v>996023.25</v>
+      </c>
+      <c r="U152" s="89">
+        <v>993236.0</v>
+      </c>
+      <c r="V152" s="89">
+        <v>994455.0</v>
+      </c>
+      <c r="W152" s="89">
+        <v>996200.75</v>
+      </c>
+      <c r="X152" s="89">
+        <v>993315.25</v>
+      </c>
+      <c r="Y152" s="89">
+        <v>992570.25</v>
+      </c>
+      <c r="Z152" s="89">
+        <v>992782.25</v>
+      </c>
+      <c r="AA152" s="89">
+        <v>994937.75</v>
+      </c>
+      <c r="AB152" s="89">
+        <v>995174.5</v>
+      </c>
+      <c r="AC152" s="89">
+        <v>992717.25</v>
+      </c>
+      <c r="AD152" s="89">
+        <v>995263.25</v>
+      </c>
+      <c r="AE152" s="89">
+        <v>993082.25</v>
+      </c>
+      <c r="AF152" s="90">
+        <v>991807.5</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="84" t="s">
+        <v>100</v>
+      </c>
+      <c r="B153" s="88">
+        <v>11974.8560116604</v>
+      </c>
+      <c r="C153" s="89">
+        <v>16479.7682534525</v>
+      </c>
+      <c r="D153" s="89">
+        <v>19745.8093196379</v>
+      </c>
+      <c r="E153" s="89">
+        <v>15013.667263114</v>
+      </c>
+      <c r="F153" s="89">
+        <v>17141.9027440801</v>
+      </c>
+      <c r="G153" s="89">
+        <v>17467.0776229883</v>
+      </c>
+      <c r="H153" s="89">
+        <v>15929.4166775654</v>
+      </c>
+      <c r="I153" s="89">
+        <v>7990.08616974811</v>
+      </c>
+      <c r="J153" s="89">
+        <v>9143.48298994973</v>
+      </c>
+      <c r="K153" s="89">
+        <v>73164.170508436</v>
+      </c>
+      <c r="L153" s="89">
+        <v>16959.9632277756</v>
+      </c>
+      <c r="M153" s="89">
+        <v>11928.542848982</v>
+      </c>
+      <c r="N153" s="89">
+        <v>59912.471950755</v>
+      </c>
+      <c r="O153" s="89">
+        <v>50891.4926897168</v>
+      </c>
+      <c r="P153" s="89">
+        <v>10750.9781066655</v>
+      </c>
+      <c r="Q153" s="89">
+        <v>86700.0469795144</v>
+      </c>
+      <c r="R153" s="89">
+        <v>19790.7420575253</v>
+      </c>
+      <c r="S153" s="89">
+        <v>19781.1813727088</v>
+      </c>
+      <c r="T153" s="89">
+        <v>22527.527016963</v>
+      </c>
+      <c r="U153" s="89">
+        <v>70397.5945305484</v>
+      </c>
+      <c r="V153" s="89">
+        <v>145065.272172564</v>
+      </c>
+      <c r="W153" s="89">
+        <v>82766.8150902733</v>
+      </c>
+      <c r="X153" s="89">
+        <v>114019.212693245</v>
+      </c>
+      <c r="Y153" s="89">
+        <v>21985.4647949503</v>
+      </c>
+      <c r="Z153" s="89">
+        <v>23631.1503846089</v>
+      </c>
+      <c r="AA153" s="89">
+        <v>23621.2670212142</v>
+      </c>
+      <c r="AB153" s="89">
+        <v>28194.2400589198</v>
+      </c>
+      <c r="AC153" s="89">
+        <v>26325.4561629519</v>
+      </c>
+      <c r="AD153" s="89">
+        <v>21988.6359783298</v>
+      </c>
+      <c r="AE153" s="89">
+        <v>12677.1830960194</v>
+      </c>
+      <c r="AF153" s="90">
+        <v>28802.5992750654</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="84" t="s">
+        <v>101</v>
+      </c>
+      <c r="B154" s="91">
+        <v>2475.42767769531</v>
+      </c>
+      <c r="C154" s="92">
+        <v>1246.56214746799</v>
+      </c>
+      <c r="D154" s="92">
+        <v>1767.29841495431</v>
+      </c>
+      <c r="E154" s="92">
+        <v>2539.21218097267</v>
+      </c>
+      <c r="F154" s="92">
+        <v>3479.81302479027</v>
+      </c>
+      <c r="G154" s="92">
+        <v>1788.82578455813</v>
+      </c>
+      <c r="H154" s="92">
+        <v>3383.0759302741</v>
+      </c>
+      <c r="I154" s="92">
+        <v>2860.93956376223</v>
+      </c>
+      <c r="J154" s="92">
+        <v>2893.33686035691</v>
+      </c>
+      <c r="K154" s="92">
+        <v>1227.4024401149</v>
+      </c>
+      <c r="L154" s="92">
+        <v>1810.54922606374</v>
+      </c>
+      <c r="M154" s="92">
+        <v>2435.42239662856</v>
+      </c>
+      <c r="N154" s="92">
+        <v>2819.48160128773</v>
+      </c>
+      <c r="O154" s="92">
+        <v>2649.69935794611</v>
+      </c>
+      <c r="P154" s="92">
+        <v>1947.48902435932</v>
+      </c>
+      <c r="Q154" s="92">
+        <v>2367.92096310244</v>
+      </c>
+      <c r="R154" s="92">
+        <v>4100.38372442141</v>
+      </c>
+      <c r="S154" s="92">
+        <v>2177.56439342216</v>
+      </c>
+      <c r="T154" s="92">
+        <v>2503.91716865794</v>
+      </c>
+      <c r="U154" s="92">
+        <v>4143.12231294226</v>
+      </c>
+      <c r="V154" s="92">
+        <v>2188.59840994185</v>
+      </c>
+      <c r="W154" s="92">
+        <v>3593.6161018534</v>
+      </c>
+      <c r="X154" s="92">
+        <v>5366.57071019287</v>
+      </c>
+      <c r="Y154" s="92">
+        <v>5358.48422480649</v>
+      </c>
+      <c r="Z154" s="92">
+        <v>4960.60008340725</v>
+      </c>
+      <c r="AA154" s="92">
+        <v>2785.27712938946</v>
+      </c>
+      <c r="AB154" s="92">
+        <v>1858.02536312075</v>
+      </c>
+      <c r="AC154" s="92">
+        <v>3599.70640295844</v>
+      </c>
+      <c r="AD154" s="92">
+        <v>4834.74913387448</v>
+      </c>
+      <c r="AE154" s="92">
+        <v>3245.18114864178</v>
+      </c>
+      <c r="AF154" s="93">
+        <v>4106.48697185319</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="84" t="s">
+        <v>102</v>
+      </c>
+      <c r="B155" s="94">
+        <v>2.81E-6</v>
+      </c>
+      <c r="C155" s="95">
+        <v>2.54E-6</v>
+      </c>
+      <c r="D155" s="95">
+        <v>3.0E-6</v>
+      </c>
+      <c r="E155" s="95">
+        <v>1.18E-5</v>
+      </c>
+      <c r="F155" s="95">
+        <v>2.98E-6</v>
+      </c>
+      <c r="G155" s="95">
+        <v>3.09E-6</v>
+      </c>
+      <c r="H155" s="95">
+        <v>2.91E-6</v>
+      </c>
+      <c r="I155" s="95">
+        <v>2.68E-6</v>
+      </c>
+      <c r="J155" s="95">
+        <v>2.52E-6</v>
+      </c>
+      <c r="K155" s="95">
+        <v>2.45E-6</v>
+      </c>
+      <c r="L155" s="95">
+        <v>2.22E-6</v>
+      </c>
+      <c r="M155" s="95">
+        <v>2.04E-6</v>
+      </c>
+      <c r="N155" s="95">
+        <v>2.31E-6</v>
+      </c>
+      <c r="O155" s="95">
+        <v>2.79E-6</v>
+      </c>
+      <c r="P155" s="95">
+        <v>2.46E-6</v>
+      </c>
+      <c r="Q155" s="95">
+        <v>2.41E-6</v>
+      </c>
+      <c r="R155" s="95">
+        <v>2.25E-6</v>
+      </c>
+      <c r="S155" s="95">
+        <v>2.07E-6</v>
+      </c>
+      <c r="T155" s="95">
+        <v>2.1E-6</v>
+      </c>
+      <c r="U155" s="95">
+        <v>2.2E-6</v>
+      </c>
+      <c r="V155" s="95">
+        <v>2.38E-6</v>
+      </c>
+      <c r="W155" s="95">
+        <v>2.21E-6</v>
+      </c>
+      <c r="X155" s="95">
+        <v>2.22E-6</v>
+      </c>
+      <c r="Y155" s="95">
+        <v>2.18E-6</v>
+      </c>
+      <c r="Z155" s="95">
+        <v>2.19E-6</v>
+      </c>
+      <c r="AA155" s="95">
+        <v>1.96E-6</v>
+      </c>
+      <c r="AB155" s="95">
+        <v>1.94E-6</v>
+      </c>
+      <c r="AC155" s="95">
+        <v>1.86E-6</v>
+      </c>
+      <c r="AD155" s="95">
+        <v>2.18E-6</v>
+      </c>
+      <c r="AE155" s="95">
+        <v>2.09E-6</v>
+      </c>
+      <c r="AF155" s="96">
+        <v>2.13E-6</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="84" t="s">
+        <v>103</v>
+      </c>
+      <c r="B156" s="97">
+        <v>9.64E-6</v>
+      </c>
+      <c r="C156" s="98">
+        <v>1.0E-5</v>
+      </c>
+      <c r="D156" s="98">
+        <v>1.23E-5</v>
+      </c>
+      <c r="E156" s="98">
+        <v>7.76E-6</v>
+      </c>
+      <c r="F156" s="98">
+        <v>7.61E-6</v>
+      </c>
+      <c r="G156" s="98">
+        <v>6.23E-6</v>
+      </c>
+      <c r="H156" s="98">
+        <v>5.93E-6</v>
+      </c>
+      <c r="I156" s="98">
+        <v>6.1E-6</v>
+      </c>
+      <c r="J156" s="98">
+        <v>6.05E-6</v>
+      </c>
+      <c r="K156" s="98">
+        <v>6.86E-6</v>
+      </c>
+      <c r="L156" s="98">
+        <v>6.24E-6</v>
+      </c>
+      <c r="M156" s="98">
+        <v>6.29E-6</v>
+      </c>
+      <c r="N156" s="98">
+        <v>6.12E-6</v>
+      </c>
+      <c r="O156" s="98">
+        <v>6.25E-6</v>
+      </c>
+      <c r="P156" s="98">
+        <v>6.28E-6</v>
+      </c>
+      <c r="Q156" s="98">
+        <v>6.26E-6</v>
+      </c>
+      <c r="R156" s="98">
+        <v>6.26E-6</v>
+      </c>
+      <c r="S156" s="98">
+        <v>6.09E-6</v>
+      </c>
+      <c r="T156" s="98">
+        <v>6.15E-6</v>
+      </c>
+      <c r="U156" s="98">
+        <v>6.13E-6</v>
+      </c>
+      <c r="V156" s="98">
+        <v>6.22E-6</v>
+      </c>
+      <c r="W156" s="98">
+        <v>6.43E-6</v>
+      </c>
+      <c r="X156" s="98">
+        <v>6.39E-6</v>
+      </c>
+      <c r="Y156" s="98">
+        <v>6.51E-6</v>
+      </c>
+      <c r="Z156" s="98">
+        <v>6.42E-6</v>
+      </c>
+      <c r="AA156" s="98">
+        <v>6.38E-6</v>
+      </c>
+      <c r="AB156" s="98">
+        <v>5.6E-6</v>
+      </c>
+      <c r="AC156" s="98">
+        <v>6.39E-6</v>
+      </c>
+      <c r="AD156" s="98">
+        <v>6.4E-6</v>
+      </c>
+      <c r="AE156" s="98">
+        <v>5.57E-6</v>
+      </c>
+      <c r="AF156" s="99">
+        <v>5.6E-6</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="84" t="s">
+        <v>104</v>
+      </c>
+      <c r="B157" s="97">
+        <v>1.09E-6</v>
+      </c>
+      <c r="C157" s="98">
+        <v>4.53E-7</v>
+      </c>
+      <c r="D157" s="98">
+        <v>1.05E-6</v>
+      </c>
+      <c r="E157" s="98">
+        <v>1.63E-5</v>
+      </c>
+      <c r="F157" s="98">
+        <v>1.07E-6</v>
+      </c>
+      <c r="G157" s="98">
+        <v>1.72E-6</v>
+      </c>
+      <c r="H157" s="98">
+        <v>1.71E-6</v>
+      </c>
+      <c r="I157" s="98">
+        <v>1.46E-6</v>
+      </c>
+      <c r="J157" s="98">
+        <v>9.9E-7</v>
+      </c>
+      <c r="K157" s="98">
+        <v>7.65E-7</v>
+      </c>
+      <c r="L157" s="98">
+        <v>7.38E-7</v>
+      </c>
+      <c r="M157" s="98">
+        <v>4.13E-7</v>
+      </c>
+      <c r="N157" s="98">
+        <v>4.39E-7</v>
+      </c>
+      <c r="O157" s="98">
+        <v>1.09E-6</v>
+      </c>
+      <c r="P157" s="98">
+        <v>6.49E-7</v>
+      </c>
+      <c r="Q157" s="98">
+        <v>3.37E-7</v>
+      </c>
+      <c r="R157" s="98">
+        <v>2.44E-7</v>
+      </c>
+      <c r="S157" s="98">
+        <v>2.52E-7</v>
+      </c>
+      <c r="T157" s="98">
+        <v>5.52E-7</v>
+      </c>
+      <c r="U157" s="98">
+        <v>4.23E-7</v>
+      </c>
+      <c r="V157" s="98">
+        <v>6.79E-7</v>
+      </c>
+      <c r="W157" s="98">
+        <v>4.79E-7</v>
+      </c>
+      <c r="X157" s="98">
+        <v>6.84E-7</v>
+      </c>
+      <c r="Y157" s="98">
+        <v>1.71E-7</v>
+      </c>
+      <c r="Z157" s="98">
+        <v>3.33E-7</v>
+      </c>
+      <c r="AA157" s="98">
+        <v>4.17E-7</v>
+      </c>
+      <c r="AB157" s="98">
+        <v>4.26E-7</v>
+      </c>
+      <c r="AC157" s="98">
+        <v>4.4E-7</v>
+      </c>
+      <c r="AD157" s="98">
+        <v>5.17E-7</v>
+      </c>
+      <c r="AE157" s="98">
+        <v>3.8E-7</v>
+      </c>
+      <c r="AF157" s="99">
+        <v>4.19E-7</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="84" t="s">
+        <v>105</v>
+      </c>
+      <c r="B158" s="100">
+        <v>6.31E-6</v>
+      </c>
+      <c r="C158" s="101">
+        <v>4.65E-6</v>
+      </c>
+      <c r="D158" s="101">
+        <v>7.44E-6</v>
+      </c>
+      <c r="E158" s="101">
+        <v>4.51E-6</v>
+      </c>
+      <c r="F158" s="101">
+        <v>4.17E-6</v>
+      </c>
+      <c r="G158" s="101">
+        <v>2.12E-6</v>
+      </c>
+      <c r="H158" s="101">
+        <v>1.46E-6</v>
+      </c>
+      <c r="I158" s="101">
+        <v>1.28E-6</v>
+      </c>
+      <c r="J158" s="101">
+        <v>1.42E-6</v>
+      </c>
+      <c r="K158" s="101">
+        <v>1.56E-6</v>
+      </c>
+      <c r="L158" s="101">
+        <v>1.28E-6</v>
+      </c>
+      <c r="M158" s="101">
+        <v>1.25E-6</v>
+      </c>
+      <c r="N158" s="101">
+        <v>1.2E-6</v>
+      </c>
+      <c r="O158" s="101">
+        <v>1.22E-6</v>
+      </c>
+      <c r="P158" s="101">
+        <v>1.35E-6</v>
+      </c>
+      <c r="Q158" s="101">
+        <v>1.37E-6</v>
+      </c>
+      <c r="R158" s="101">
+        <v>1.21E-6</v>
+      </c>
+      <c r="S158" s="101">
+        <v>1.07E-6</v>
+      </c>
+      <c r="T158" s="101">
+        <v>1.17E-6</v>
+      </c>
+      <c r="U158" s="101">
+        <v>1.05E-6</v>
+      </c>
+      <c r="V158" s="101">
+        <v>1.06E-6</v>
+      </c>
+      <c r="W158" s="101">
+        <v>1.34E-6</v>
+      </c>
+      <c r="X158" s="101">
+        <v>1.34E-6</v>
+      </c>
+      <c r="Y158" s="101">
+        <v>1.32E-6</v>
+      </c>
+      <c r="Z158" s="101">
+        <v>1.24E-6</v>
+      </c>
+      <c r="AA158" s="101">
+        <v>1.25E-6</v>
+      </c>
+      <c r="AB158" s="101">
+        <v>1.08E-6</v>
+      </c>
+      <c r="AC158" s="101">
+        <v>1.19E-6</v>
+      </c>
+      <c r="AD158" s="101">
+        <v>1.18E-6</v>
+      </c>
+      <c r="AE158" s="101">
+        <v>1.08E-6</v>
+      </c>
+      <c r="AF158" s="102">
+        <v>1.09E-6</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="103" t="s">
+        <v>106</v>
+      </c>
+      <c r="B159" s="94">
+        <v>4.09E-6</v>
+      </c>
+      <c r="C159" s="95">
+        <v>3.42E-6</v>
+      </c>
+      <c r="D159" s="95">
+        <v>4.13E-6</v>
+      </c>
+      <c r="E159" s="95">
+        <v>1.3E-5</v>
+      </c>
+      <c r="F159" s="95">
+        <v>3.85E-6</v>
+      </c>
+      <c r="G159" s="95">
+        <v>4.11E-6</v>
+      </c>
+      <c r="H159" s="95">
+        <v>3.89E-6</v>
+      </c>
+      <c r="I159" s="95">
+        <v>3.45E-6</v>
+      </c>
+      <c r="J159" s="95">
+        <v>3.0E-6</v>
+      </c>
+      <c r="K159" s="95">
+        <v>2.87E-6</v>
+      </c>
+      <c r="L159" s="95">
+        <v>2.71E-6</v>
+      </c>
+      <c r="M159" s="95">
+        <v>2.4E-6</v>
+      </c>
+      <c r="N159" s="95">
+        <v>2.65E-6</v>
+      </c>
+      <c r="O159" s="95">
+        <v>3.18E-6</v>
+      </c>
+      <c r="P159" s="95">
+        <v>2.79E-6</v>
+      </c>
+      <c r="Q159" s="95">
+        <v>2.6E-6</v>
+      </c>
+      <c r="R159" s="95">
+        <v>2.46E-6</v>
+      </c>
+      <c r="S159" s="95">
+        <v>2.23E-6</v>
+      </c>
+      <c r="T159" s="95">
+        <v>2.27E-6</v>
+      </c>
+      <c r="U159" s="95">
+        <v>2.3E-6</v>
+      </c>
+      <c r="V159" s="95">
+        <v>2.46E-6</v>
+      </c>
+      <c r="W159" s="95">
+        <v>2.3E-6</v>
+      </c>
+      <c r="X159" s="95">
+        <v>2.25E-6</v>
+      </c>
+      <c r="Y159" s="95">
+        <v>2.28E-6</v>
+      </c>
+      <c r="Z159" s="95">
+        <v>2.21E-6</v>
+      </c>
+      <c r="AA159" s="95">
+        <v>1.97E-6</v>
+      </c>
+      <c r="AB159" s="95">
+        <v>1.97E-6</v>
+      </c>
+      <c r="AC159" s="95">
+        <v>1.9E-6</v>
+      </c>
+      <c r="AD159" s="95">
+        <v>2.23E-6</v>
+      </c>
+      <c r="AE159" s="95">
+        <v>2.11E-6</v>
+      </c>
+      <c r="AF159" s="96">
+        <v>2.14E-6</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="103" t="s">
+        <v>107</v>
+      </c>
+      <c r="B160" s="97">
+        <v>1.32E-5</v>
+      </c>
+      <c r="C160" s="98">
+        <v>1.38E-5</v>
+      </c>
+      <c r="D160" s="98">
+        <v>1.74E-5</v>
+      </c>
+      <c r="E160" s="98">
+        <v>1.01E-5</v>
+      </c>
+      <c r="F160" s="98">
+        <v>9.21E-6</v>
+      </c>
+      <c r="G160" s="98">
+        <v>7.78E-6</v>
+      </c>
+      <c r="H160" s="98">
+        <v>6.78E-6</v>
+      </c>
+      <c r="I160" s="98">
+        <v>6.77E-6</v>
+      </c>
+      <c r="J160" s="98">
+        <v>6.82E-6</v>
+      </c>
+      <c r="K160" s="98">
+        <v>7.51E-6</v>
+      </c>
+      <c r="L160" s="98">
+        <v>7.03E-6</v>
+      </c>
+      <c r="M160" s="98">
+        <v>6.78E-6</v>
+      </c>
+      <c r="N160" s="98">
+        <v>6.49E-6</v>
+      </c>
+      <c r="O160" s="98">
+        <v>6.55E-6</v>
+      </c>
+      <c r="P160" s="98">
+        <v>6.56E-6</v>
+      </c>
+      <c r="Q160" s="98">
+        <v>6.44E-6</v>
+      </c>
+      <c r="R160" s="98">
+        <v>6.4E-6</v>
+      </c>
+      <c r="S160" s="98">
+        <v>6.3E-6</v>
+      </c>
+      <c r="T160" s="98">
+        <v>6.26E-6</v>
+      </c>
+      <c r="U160" s="98">
+        <v>6.26E-6</v>
+      </c>
+      <c r="V160" s="98">
+        <v>6.26E-6</v>
+      </c>
+      <c r="W160" s="98">
+        <v>6.47E-6</v>
+      </c>
+      <c r="X160" s="98">
+        <v>6.39E-6</v>
+      </c>
+      <c r="Y160" s="98">
+        <v>6.53E-6</v>
+      </c>
+      <c r="Z160" s="98">
+        <v>6.36E-6</v>
+      </c>
+      <c r="AA160" s="98">
+        <v>6.34E-6</v>
+      </c>
+      <c r="AB160" s="98">
+        <v>5.63E-6</v>
+      </c>
+      <c r="AC160" s="98">
+        <v>6.35E-6</v>
+      </c>
+      <c r="AD160" s="98">
+        <v>6.33E-6</v>
+      </c>
+      <c r="AE160" s="98">
+        <v>5.53E-6</v>
+      </c>
+      <c r="AF160" s="99">
+        <v>5.52E-6</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="B161" s="97">
+        <v>1.88E-6</v>
+      </c>
+      <c r="C161" s="98">
+        <v>6.53E-7</v>
+      </c>
+      <c r="D161" s="98">
+        <v>1.71E-6</v>
+      </c>
+      <c r="E161" s="98">
+        <v>1.69E-5</v>
+      </c>
+      <c r="F161" s="98">
+        <v>1.73E-6</v>
+      </c>
+      <c r="G161" s="98">
+        <v>2.81E-6</v>
+      </c>
+      <c r="H161" s="98">
+        <v>2.69E-6</v>
+      </c>
+      <c r="I161" s="98">
+        <v>2.06E-6</v>
+      </c>
+      <c r="J161" s="98">
+        <v>1.34E-6</v>
+      </c>
+      <c r="K161" s="98">
+        <v>1.06E-6</v>
+      </c>
+      <c r="L161" s="98">
+        <v>1.03E-6</v>
+      </c>
+      <c r="M161" s="98">
+        <v>5.45E-7</v>
+      </c>
+      <c r="N161" s="98">
+        <v>5.82E-7</v>
+      </c>
+      <c r="O161" s="98">
+        <v>1.39E-6</v>
+      </c>
+      <c r="P161" s="98">
+        <v>7.63E-7</v>
+      </c>
+      <c r="Q161" s="98">
+        <v>3.26E-7</v>
+      </c>
+      <c r="R161" s="98">
+        <v>2.85E-7</v>
+      </c>
+      <c r="S161" s="98">
+        <v>2.36E-7</v>
+      </c>
+      <c r="T161" s="98">
+        <v>5.77E-7</v>
+      </c>
+      <c r="U161" s="98">
+        <v>4.65E-7</v>
+      </c>
+      <c r="V161" s="98">
+        <v>6.96E-7</v>
+      </c>
+      <c r="W161" s="98">
+        <v>4.69E-7</v>
+      </c>
+      <c r="X161" s="98">
+        <v>6.42E-7</v>
+      </c>
+      <c r="Y161" s="98">
+        <v>1.38E-7</v>
+      </c>
+      <c r="Z161" s="98">
+        <v>3.6E-7</v>
+      </c>
+      <c r="AA161" s="98">
+        <v>4.18E-7</v>
+      </c>
+      <c r="AB161" s="98">
+        <v>4.14E-7</v>
+      </c>
+      <c r="AC161" s="98">
+        <v>4.45E-7</v>
+      </c>
+      <c r="AD161" s="98">
+        <v>5.14E-7</v>
+      </c>
+      <c r="AE161" s="98">
+        <v>3.67E-7</v>
+      </c>
+      <c r="AF161" s="99">
+        <v>4.04E-7</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="104" t="s">
+        <v>109</v>
+      </c>
+      <c r="B162" s="105">
+        <v>8.77E-6</v>
+      </c>
+      <c r="C162" s="106">
+        <v>7.01E-6</v>
+      </c>
+      <c r="D162" s="106">
+        <v>1.09E-5</v>
+      </c>
+      <c r="E162" s="106">
+        <v>6.02E-6</v>
+      </c>
+      <c r="F162" s="106">
+        <v>5.1E-6</v>
+      </c>
+      <c r="G162" s="106">
+        <v>2.52E-6</v>
+      </c>
+      <c r="H162" s="106">
+        <v>1.39E-6</v>
+      </c>
+      <c r="I162" s="106">
+        <v>1.35E-6</v>
+      </c>
+      <c r="J162" s="106">
+        <v>1.55E-6</v>
+      </c>
+      <c r="K162" s="106">
+        <v>1.59E-6</v>
+      </c>
+      <c r="L162" s="106">
+        <v>1.37E-6</v>
+      </c>
+      <c r="M162" s="106">
+        <v>1.22E-6</v>
+      </c>
+      <c r="N162" s="106">
+        <v>1.2E-6</v>
+      </c>
+      <c r="O162" s="106">
+        <v>1.18E-6</v>
+      </c>
+      <c r="P162" s="106">
+        <v>1.34E-6</v>
+      </c>
+      <c r="Q162" s="106">
+        <v>1.31E-6</v>
+      </c>
+      <c r="R162" s="106">
+        <v>1.22E-6</v>
+      </c>
+      <c r="S162" s="106">
+        <v>1.07E-6</v>
+      </c>
+      <c r="T162" s="106">
+        <v>1.13E-6</v>
+      </c>
+      <c r="U162" s="106">
+        <v>1.06E-6</v>
+      </c>
+      <c r="V162" s="106">
+        <v>1.09E-6</v>
+      </c>
+      <c r="W162" s="106">
+        <v>1.34E-6</v>
+      </c>
+      <c r="X162" s="106">
+        <v>1.38E-6</v>
+      </c>
+      <c r="Y162" s="106">
+        <v>1.33E-6</v>
+      </c>
+      <c r="Z162" s="106">
+        <v>1.17E-6</v>
+      </c>
+      <c r="AA162" s="106">
+        <v>1.2E-6</v>
+      </c>
+      <c r="AB162" s="106">
+        <v>1.01E-6</v>
+      </c>
+      <c r="AC162" s="106">
+        <v>1.12E-6</v>
+      </c>
+      <c r="AD162" s="106">
+        <v>1.09E-6</v>
+      </c>
+      <c r="AE162" s="106">
+        <v>1.01E-6</v>
+      </c>
+      <c r="AF162" s="107">
+        <v>1.01E-6</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="B163" s="108"/>
+      <c r="C163" s="108"/>
+      <c r="D163" s="108"/>
+      <c r="E163" s="108"/>
+      <c r="F163" s="108"/>
+      <c r="G163" s="108"/>
+      <c r="H163" s="108"/>
+      <c r="I163" s="108"/>
+      <c r="J163" s="108"/>
+      <c r="K163" s="108"/>
+      <c r="L163" s="108"/>
+      <c r="M163" s="108"/>
+      <c r="N163" s="108"/>
+      <c r="O163" s="108"/>
+      <c r="P163" s="108"/>
+      <c r="Q163" s="108"/>
+      <c r="R163" s="108"/>
+      <c r="S163" s="108"/>
+      <c r="T163" s="108"/>
+      <c r="U163" s="108"/>
+      <c r="V163" s="108"/>
+      <c r="W163" s="108"/>
+      <c r="X163" s="108"/>
+      <c r="Y163" s="108"/>
+      <c r="Z163" s="108"/>
+      <c r="AA163" s="108"/>
+      <c r="AB163" s="108"/>
+      <c r="AC163" s="108"/>
+      <c r="AD163" s="108"/>
+      <c r="AE163" s="108"/>
+      <c r="AF163" s="108"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="40" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="109"/>
+      <c r="B165" s="80"/>
+      <c r="C165" s="80"/>
+      <c r="D165" s="80"/>
+      <c r="E165" s="80"/>
+      <c r="F165" s="80"/>
+      <c r="G165" s="80"/>
+      <c r="H165" s="80"/>
+      <c r="I165" s="80"/>
+      <c r="J165" s="80"/>
+      <c r="K165" s="80"/>
+      <c r="L165" s="80"/>
+      <c r="M165" s="80"/>
+      <c r="N165" s="80"/>
+      <c r="O165" s="80"/>
+      <c r="P165" s="80"/>
+      <c r="Q165" s="80"/>
+      <c r="R165" s="80"/>
+      <c r="S165" s="80"/>
+      <c r="T165" s="80"/>
+      <c r="U165" s="80"/>
+      <c r="V165" s="80"/>
+      <c r="W165" s="80"/>
+      <c r="X165" s="80"/>
+      <c r="Y165" s="80"/>
+      <c r="Z165" s="80"/>
+      <c r="AA165" s="80"/>
+      <c r="AB165" s="80"/>
+      <c r="AC165" s="80"/>
+      <c r="AD165" s="80"/>
+      <c r="AE165" s="80"/>
+      <c r="AF165" s="80"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="110"/>
+      <c r="B166" s="111"/>
+      <c r="C166" s="111"/>
+      <c r="D166" s="111"/>
+      <c r="E166" s="111"/>
+      <c r="F166" s="111"/>
+      <c r="G166" s="111"/>
+      <c r="H166" s="111"/>
+      <c r="I166" s="111"/>
+      <c r="J166" s="111"/>
+      <c r="K166" s="111"/>
+      <c r="L166" s="111"/>
+      <c r="M166" s="111"/>
+      <c r="N166" s="111"/>
+      <c r="O166" s="111"/>
+      <c r="P166" s="111"/>
+      <c r="Q166" s="111"/>
+      <c r="R166" s="111"/>
+      <c r="S166" s="111"/>
+      <c r="T166" s="111"/>
+      <c r="U166" s="111"/>
+      <c r="V166" s="111"/>
+      <c r="W166" s="111"/>
+      <c r="X166" s="111"/>
+      <c r="Y166" s="111"/>
+      <c r="Z166" s="111"/>
+      <c r="AA166" s="111"/>
+      <c r="AB166" s="111"/>
+      <c r="AC166" s="111"/>
+      <c r="AD166" s="111"/>
+      <c r="AE166" s="111"/>
+      <c r="AF166" s="111"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="110"/>
+      <c r="B169" s="80"/>
+      <c r="C169" s="80"/>
+      <c r="D169" s="80"/>
+      <c r="E169" s="80"/>
+      <c r="F169" s="80"/>
+      <c r="G169" s="80"/>
+      <c r="H169" s="80"/>
+      <c r="I169" s="80"/>
+      <c r="J169" s="80"/>
+      <c r="K169" s="80"/>
+      <c r="L169" s="80"/>
+      <c r="M169" s="80"/>
+      <c r="N169" s="80"/>
+      <c r="O169" s="80"/>
+      <c r="P169" s="80"/>
+      <c r="Q169" s="80"/>
+      <c r="R169" s="80"/>
+      <c r="S169" s="80"/>
+      <c r="T169" s="80"/>
+      <c r="U169" s="80"/>
+      <c r="V169" s="80"/>
+      <c r="W169" s="80"/>
+      <c r="X169" s="80"/>
+      <c r="Y169" s="80"/>
+      <c r="Z169" s="80"/>
+      <c r="AA169" s="80"/>
+      <c r="AB169" s="80"/>
+      <c r="AC169" s="80"/>
+      <c r="AD169" s="80"/>
+      <c r="AE169" s="80"/>
+      <c r="AF169" s="80"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="110"/>
+      <c r="B170" s="111"/>
+      <c r="C170" s="111"/>
+      <c r="D170" s="111"/>
+      <c r="E170" s="111"/>
+      <c r="F170" s="111"/>
+      <c r="G170" s="111"/>
+      <c r="H170" s="111"/>
+      <c r="I170" s="111"/>
+      <c r="J170" s="111"/>
+      <c r="K170" s="111"/>
+      <c r="L170" s="111"/>
+      <c r="M170" s="111"/>
+      <c r="N170" s="111"/>
+      <c r="O170" s="111"/>
+      <c r="P170" s="111"/>
+      <c r="Q170" s="111"/>
+      <c r="R170" s="111"/>
+      <c r="S170" s="111"/>
+      <c r="T170" s="111"/>
+      <c r="U170" s="111"/>
+      <c r="V170" s="111"/>
+      <c r="W170" s="111"/>
+      <c r="X170" s="111"/>
+      <c r="Y170" s="111"/>
+      <c r="Z170" s="111"/>
+      <c r="AA170" s="111"/>
+      <c r="AB170" s="111"/>
+      <c r="AC170" s="111"/>
+      <c r="AD170" s="111"/>
+      <c r="AE170" s="111"/>
+      <c r="AF170" s="111"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="P3:S26">
     <cfRule type="colorScale" priority="1">
@@ -73883,6 +75648,42 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B151:AF154">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFE67C73"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B155:AF158">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFD666"/>
+        <color rgb="FFE67C73"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B159:AF162">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFD666"/>
+        <color rgb="FFE67C73"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>